--- a/helper_skripts/menu_converter/menu-2024.08.09.xlsx
+++ b/helper_skripts/menu_converter/menu-2024.08.09.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix/Local/benefi/helper_skripts/menu_converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7A709C-61ED-C749-BC00-6860171CAEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1511B4-AAF5-A14E-9775-CB44A4016121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{66CE5546-DD97-6C42-971C-9AA23625C39F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="258">
   <si>
     <t>Bowl</t>
   </si>
@@ -807,6 +807,12 @@
   </si>
   <si>
     <t>Sandeviç Peynirli</t>
+  </si>
+  <si>
+    <t>Lotus Cheescake</t>
+  </si>
+  <si>
+    <t>Lotuslu Chees Cake</t>
   </si>
 </sst>
 </file>
@@ -1445,11 +1451,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3505,18 +3511,18 @@
       <c r="A107" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B107" s="2"/>
+      <c r="B107" s="17"/>
       <c r="C107" s="4" t="s">
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F107" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="F107" s="14"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="I107" s="3"/>
     </row>
@@ -3526,13 +3532,13 @@
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="4" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F108" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="F108" s="2"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3">
         <v>150</v>
@@ -3543,20 +3549,18 @@
       <c r="A109" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="4" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="4" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F109" s="14"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="I109" s="3"/>
     </row>
@@ -3564,18 +3568,20 @@
       <c r="A110" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B110" s="2"/>
+      <c r="B110" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C110" s="4" t="s">
-        <v>247</v>
+        <v>122</v>
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F110" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F110" s="14"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="I110" s="3"/>
     </row>
@@ -3583,17 +3589,15 @@
       <c r="A111" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B111" s="2"/>
       <c r="C111" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D111" s="14"/>
       <c r="E111" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F111" s="14"/>
+        <v>119</v>
+      </c>
+      <c r="F111" s="2"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3">
         <v>150</v>
@@ -3604,13 +3608,15 @@
       <c r="A112" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B112" s="2"/>
+      <c r="B112" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C112" s="4" t="s">
-        <v>105</v>
+        <v>244</v>
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="4" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="3"/>
@@ -3625,11 +3631,11 @@
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="4" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D113" s="14"/>
       <c r="E113" s="4" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="3"/>
@@ -3644,13 +3650,13 @@
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D114" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="D114" s="14"/>
       <c r="E114" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F114" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="F114" s="14"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3">
         <v>150</v>
@@ -3663,11 +3669,11 @@
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F115" s="2"/>
       <c r="G115" s="3"/>
@@ -3682,11 +3688,11 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="3"/>
@@ -3699,20 +3705,18 @@
       <c r="A117" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B117" s="2"/>
       <c r="C117" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="I117" s="3"/>
     </row>
@@ -3720,18 +3724,20 @@
       <c r="A118" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B118" s="2"/>
+      <c r="B118" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C118" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I118" s="3"/>
     </row>
@@ -3739,20 +3745,18 @@
       <c r="A119" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B119" s="2"/>
       <c r="C119" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D119" s="14"/>
+        <v>134</v>
+      </c>
+      <c r="D119" s="2"/>
       <c r="E119" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F119" s="14"/>
+        <v>126</v>
+      </c>
+      <c r="F119" s="2"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="I119" s="3"/>
     </row>
@@ -3760,18 +3764,20 @@
       <c r="A120" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B120" s="2"/>
+      <c r="B120" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C120" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D120" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="D120" s="14"/>
       <c r="E120" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F120" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="F120" s="14"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="I120" s="3"/>
     </row>
@@ -3781,16 +3787,16 @@
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="I121" s="3"/>
     </row>
@@ -3798,20 +3804,18 @@
       <c r="A122" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B122" s="2"/>
       <c r="C122" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D122" s="14"/>
+        <v>165</v>
+      </c>
+      <c r="D122" s="2"/>
       <c r="E122" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F122" s="14"/>
+        <v>162</v>
+      </c>
+      <c r="F122" s="2"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="I122" s="3"/>
     </row>
@@ -3819,13 +3823,15 @@
       <c r="A123" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B123" s="2"/>
+      <c r="B123" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C123" s="4" t="s">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="D123" s="14"/>
       <c r="E123" s="4" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="F123" s="14"/>
       <c r="G123" s="3"/>
@@ -3838,17 +3844,15 @@
       <c r="A124" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B124" s="2"/>
       <c r="C124" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D124" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="D124" s="14"/>
       <c r="E124" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F124" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="F124" s="14"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3">
         <v>150</v>
@@ -3859,18 +3863,20 @@
       <c r="A125" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B125" s="2"/>
+      <c r="B125" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C125" s="4" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="4" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="F125" s="2"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="I125" s="3"/>
     </row>
@@ -3880,13 +3886,13 @@
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D126" s="14"/>
+        <v>140</v>
+      </c>
+      <c r="D126" s="2"/>
       <c r="E126" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F126" s="14"/>
+        <v>140</v>
+      </c>
+      <c r="F126" s="2"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3">
         <v>135</v>
@@ -3897,15 +3903,13 @@
       <c r="A127" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B127" s="2"/>
       <c r="C127" s="4" t="s">
-        <v>206</v>
+        <v>2</v>
       </c>
       <c r="D127" s="14"/>
       <c r="E127" s="4" t="s">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="F127" s="14"/>
       <c r="G127" s="3"/>
@@ -3918,15 +3922,17 @@
       <c r="A128" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B128" s="2"/>
+      <c r="B128" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C128" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D128" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="D128" s="14"/>
       <c r="E128" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F128" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="F128" s="14"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3">
         <v>135</v>
@@ -3934,42 +3940,40 @@
       <c r="I128" s="3"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B129" s="17"/>
-      <c r="C129" s="5" t="s">
-        <v>235</v>
+      <c r="A129" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="D129" s="2"/>
-      <c r="E129" s="5" t="s">
-        <v>217</v>
+      <c r="E129" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="I129" s="3"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D130" s="14"/>
-      <c r="E130" s="4" t="s">
-        <v>218</v>
+      <c r="B130" s="17"/>
+      <c r="C130" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I130" s="3"/>
     </row>
@@ -3977,18 +3981,20 @@
       <c r="A131" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B131" s="2"/>
+      <c r="B131" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C131" s="4" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="D131" s="14"/>
       <c r="E131" s="4" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="I131" s="3"/>
     </row>
@@ -3996,20 +4002,18 @@
       <c r="A132" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B132" s="2"/>
       <c r="C132" s="4" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D132" s="14"/>
       <c r="E132" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F132" s="14"/>
+        <v>249</v>
+      </c>
+      <c r="F132" s="2"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="I132" s="3"/>
     </row>
@@ -4021,51 +4025,53 @@
         <v>246</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D133" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="D133" s="14"/>
       <c r="E133" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F133" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="F133" s="14"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I133" s="3"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="B134" s="17" t="s">
+      <c r="A134" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C134" s="5" t="s">
-        <v>196</v>
+      <c r="C134" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="D134" s="2"/>
-      <c r="E134" s="5" t="s">
-        <v>195</v>
+      <c r="E134" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="I134" s="3"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D135" s="14"/>
-      <c r="E135" s="4" t="s">
-        <v>164</v>
+      <c r="B135" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="3"/>
@@ -4075,44 +4081,42 @@
       <c r="I135" s="3"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B136" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>208</v>
+      <c r="A136" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="D136" s="14"/>
-      <c r="E136" s="5" t="s">
-        <v>207</v>
+      <c r="E136" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="I136" s="3"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C137" s="4" t="s">
-        <v>239</v>
+      <c r="C137" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="D137" s="14"/>
-      <c r="E137" s="4" t="s">
-        <v>153</v>
+      <c r="E137" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="I137" s="3"/>
     </row>
@@ -4124,16 +4128,16 @@
         <v>246</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D138" s="14"/>
       <c r="E138" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="I138" s="3"/>
     </row>
@@ -4145,16 +4149,16 @@
         <v>246</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D139" s="14"/>
       <c r="E139" s="4" t="s">
-        <v>255</v>
+        <v>152</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I139" s="3"/>
     </row>
@@ -4166,55 +4170,55 @@
         <v>246</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D140" s="14"/>
       <c r="E140" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I140" s="3"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B141" s="5" t="s">
+      <c r="A141" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>144</v>
+      <c r="C141" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="D141" s="14"/>
-      <c r="E141" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F141" s="14"/>
+      <c r="E141" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F141" s="2"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="I141" s="3"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="E142" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F142" s="2"/>
+      <c r="C142" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D142" s="14"/>
+      <c r="E142" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F142" s="14"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3">
         <v>135</v>
@@ -4222,40 +4226,42 @@
       <c r="I142" s="3"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="B143" s="17"/>
-      <c r="C143" s="5" t="s">
-        <v>170</v>
+      <c r="A143" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="D143" s="2"/>
-      <c r="E143" s="5" t="s">
-        <v>197</v>
+      <c r="E143" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I143" s="3"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="B144" s="2"/>
-      <c r="C144" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D144" s="14"/>
-      <c r="E144" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F144" s="14"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F144" s="2"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I144" s="3"/>
     </row>
@@ -4265,16 +4271,16 @@
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="4" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="D145" s="14"/>
       <c r="E145" s="4" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="F145" s="14"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I145" s="3"/>
     </row>
@@ -4284,16 +4290,16 @@
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D146" s="14"/>
       <c r="E146" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F146" s="14"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I146" s="3"/>
     </row>
@@ -4303,11 +4309,11 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D147" s="14"/>
       <c r="E147" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F147" s="14"/>
       <c r="G147" s="3"/>
@@ -4322,11 +4328,11 @@
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="4" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="D148" s="14"/>
       <c r="E148" s="4" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="F148" s="14"/>
       <c r="G148" s="3"/>
@@ -4341,11 +4347,11 @@
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D149" s="14"/>
       <c r="E149" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F149" s="14"/>
       <c r="G149" s="3"/>
@@ -4360,16 +4366,16 @@
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D150" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="D150" s="14"/>
       <c r="E150" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F150" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="F150" s="14"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I150" s="3"/>
     </row>
@@ -4379,16 +4385,16 @@
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I151" s="3"/>
     </row>
@@ -4398,16 +4404,16 @@
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="4" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="4" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="I152" s="3"/>
     </row>
@@ -4417,45 +4423,58 @@
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="4" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="4" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3">
-        <v>10</v>
-      </c>
-      <c r="I153" s="3">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I153" s="3"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B154" s="14"/>
-      <c r="C154" s="14" t="s">
+      <c r="B154" s="2"/>
+      <c r="C154" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F154" s="2"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3">
+        <v>10</v>
+      </c>
+      <c r="I154" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B155" s="14"/>
+      <c r="C155" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="D154" s="2"/>
-      <c r="E154" s="14" t="s">
+      <c r="D155" s="2"/>
+      <c r="E155" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="3">
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="3">
         <v>60</v>
       </c>
-      <c r="I154" s="2"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="E155" s="1"/>
+      <c r="I155" s="2"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
@@ -4487,13 +4506,19 @@
       <c r="C160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161" s="1"/>
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/helper_skripts/menu_converter/menu-2024.08.09.xlsx
+++ b/helper_skripts/menu_converter/menu-2024.08.09.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix/Local/benefi/helper_skripts/menu_converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1511B4-AAF5-A14E-9775-CB44A4016121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0834CA42-AD05-234B-AD37-736FB4B1EB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{66CE5546-DD97-6C42-971C-9AA23625C39F}"/>
   </bookViews>
@@ -809,10 +809,10 @@
     <t>Sandeviç Peynirli</t>
   </si>
   <si>
-    <t>Lotus Cheescake</t>
-  </si>
-  <si>
     <t>Lotuslu Chees Cake</t>
+  </si>
+  <si>
+    <t>Lotus Cheesecake</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1455,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H110" sqref="H110"/>
+      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3513,11 +3513,11 @@
       </c>
       <c r="B107" s="17"/>
       <c r="C107" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F107" s="14"/>
       <c r="G107" s="3"/>

--- a/helper_skripts/menu_converter/menu-2024.08.09.xlsx
+++ b/helper_skripts/menu_converter/menu-2024.08.09.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix/Local/benefi/helper_skripts/menu_converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0834CA42-AD05-234B-AD37-736FB4B1EB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546331FE-FB5E-0543-98E8-8CC97995A633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{66CE5546-DD97-6C42-971C-9AA23625C39F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="259">
   <si>
     <t>Bowl</t>
   </si>
@@ -813,6 +813,9 @@
   </si>
   <si>
     <t>Lotus Cheesecake</t>
+  </si>
+  <si>
+    <t>Cold Brew</t>
   </si>
 </sst>
 </file>
@@ -943,7 +946,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -966,11 +969,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -998,6 +1012,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1451,11 +1466,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2783,35 +2798,33 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2">
+        <v>50</v>
+      </c>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5" t="s">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="5" t="s">
+      <c r="D71" s="13"/>
+      <c r="E71" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="8">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="6"/>
@@ -2826,11 +2839,11 @@
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="6"/>
@@ -2845,11 +2858,11 @@
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="6"/>
@@ -2862,40 +2875,40 @@
       <c r="A74" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>246</v>
-      </c>
+      <c r="B74" s="4"/>
       <c r="C74" s="4" t="s">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="5"/>
+      <c r="H74" s="3"/>
       <c r="I74" s="8">
-        <v>90</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B75" s="4"/>
+      <c r="B75" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="C75" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D75" s="14"/>
+        <v>238</v>
+      </c>
+      <c r="D75" s="13"/>
       <c r="E75" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F75" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="F75" s="2"/>
       <c r="G75" s="6"/>
-      <c r="H75" s="3"/>
+      <c r="H75" s="5"/>
       <c r="I75" s="8">
-        <v>125</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -2904,17 +2917,17 @@
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D76" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="D76" s="14"/>
       <c r="E76" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F76" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="F76" s="14"/>
       <c r="G76" s="6"/>
       <c r="H76" s="3"/>
       <c r="I76" s="8">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -2923,13 +2936,13 @@
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D77" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="D77" s="15"/>
       <c r="E77" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F77" s="14"/>
+        <v>32</v>
+      </c>
+      <c r="F77" s="15"/>
       <c r="G77" s="6"/>
       <c r="H77" s="3"/>
       <c r="I77" s="8">
@@ -2942,17 +2955,17 @@
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F78" s="14"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="5"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="3"/>
       <c r="I78" s="8">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -2961,17 +2974,17 @@
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="F79" s="14"/>
+      <c r="G79" s="3"/>
       <c r="H79" s="5"/>
       <c r="I79" s="8">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -2980,11 +2993,11 @@
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="4" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="6"/>
@@ -2999,17 +3012,17 @@
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F81" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="F81" s="16"/>
       <c r="G81" s="6"/>
       <c r="H81" s="5"/>
       <c r="I81" s="8">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -3018,17 +3031,17 @@
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="4" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="F82" s="14"/>
       <c r="G82" s="6"/>
       <c r="H82" s="5"/>
       <c r="I82" s="8">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -3037,39 +3050,37 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="4" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="5">
-        <v>75</v>
-      </c>
-      <c r="I83" s="10"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="8">
+        <v>90</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>246</v>
-      </c>
+      <c r="B84" s="4"/>
       <c r="C84" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F84" s="14"/>
       <c r="G84" s="6"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="10">
-        <v>90</v>
-      </c>
+      <c r="H84" s="5">
+        <v>75</v>
+      </c>
+      <c r="I84" s="10"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
@@ -3079,16 +3090,16 @@
         <v>246</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="4" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="F85" s="14"/>
       <c r="G85" s="6"/>
       <c r="H85" s="5"/>
-      <c r="I85" s="8">
+      <c r="I85" s="10">
         <v>90</v>
       </c>
     </row>
@@ -3096,13 +3107,15 @@
       <c r="A86" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B86" s="4"/>
+      <c r="B86" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="C86" s="4" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="4" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="F86" s="14"/>
       <c r="G86" s="6"/>
@@ -3116,57 +3129,55 @@
         <v>221</v>
       </c>
       <c r="B87" s="4"/>
-      <c r="C87" s="7" t="s">
-        <v>187</v>
+      <c r="C87" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="4" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="6"/>
-      <c r="H87" s="5">
-        <v>75</v>
-      </c>
-      <c r="I87" s="8"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="8">
+        <v>90</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5" t="s">
-        <v>98</v>
+      <c r="A88" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="D88" s="14"/>
-      <c r="E88" s="5" t="s">
-        <v>99</v>
+      <c r="E88" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="F88" s="14"/>
       <c r="G88" s="6"/>
       <c r="H88" s="5">
-        <v>50</v>
-      </c>
-      <c r="I88" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="I88" s="8"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>45</v>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="D89" s="14"/>
-      <c r="E89" s="4" t="s">
-        <v>45</v>
+      <c r="E89" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="F89" s="14"/>
       <c r="G89" s="6"/>
       <c r="H89" s="5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I89" s="3"/>
     </row>
@@ -3178,16 +3189,16 @@
         <v>246</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="4" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F90" s="14"/>
-      <c r="G90" s="11"/>
+      <c r="G90" s="6"/>
       <c r="H90" s="5">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I90" s="3"/>
     </row>
@@ -3199,16 +3210,16 @@
         <v>246</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F91" s="14"/>
-      <c r="G91" s="6"/>
+      <c r="G91" s="11"/>
       <c r="H91" s="5">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I91" s="3"/>
     </row>
@@ -3216,18 +3227,20 @@
       <c r="A92" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B92" s="4"/>
+      <c r="B92" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="C92" s="4" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="4" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="F92" s="14"/>
       <c r="G92" s="6"/>
       <c r="H92" s="5">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I92" s="3"/>
     </row>
@@ -3237,16 +3250,16 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F93" s="14"/>
-      <c r="G93" s="5"/>
+      <c r="G93" s="6"/>
       <c r="H93" s="5">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I93" s="3"/>
     </row>
@@ -3256,16 +3269,16 @@
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="4" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="F94" s="14"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I94" s="3"/>
     </row>
@@ -3275,51 +3288,51 @@
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F95" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F95" s="14"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I95" s="3"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>237</v>
+      <c r="A96" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="D96" s="14"/>
-      <c r="E96" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F96" s="14"/>
+      <c r="E96" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F96" s="2"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="4" t="s">
-        <v>108</v>
+      <c r="B97" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D97" s="14"/>
-      <c r="E97" s="4" t="s">
-        <v>109</v>
+      <c r="E97" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="F97" s="14"/>
       <c r="G97" s="5"/>
@@ -3334,11 +3347,11 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D98" s="13"/>
+        <v>108</v>
+      </c>
+      <c r="D98" s="14"/>
       <c r="E98" s="4" t="s">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="F98" s="14"/>
       <c r="G98" s="5"/>
@@ -3353,11 +3366,11 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D99" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="D99" s="13"/>
       <c r="E99" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F99" s="14"/>
       <c r="G99" s="5"/>
@@ -3370,15 +3383,13 @@
       <c r="A100" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B100" s="2"/>
       <c r="C100" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D100" s="13"/>
+        <v>192</v>
+      </c>
+      <c r="D100" s="14"/>
       <c r="E100" s="4" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="F100" s="14"/>
       <c r="G100" s="5"/>
@@ -3391,13 +3402,15 @@
       <c r="A101" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B101" s="2"/>
+      <c r="B101" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C101" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F101" s="14"/>
       <c r="G101" s="5"/>
@@ -3410,15 +3423,13 @@
       <c r="A102" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B102" s="2"/>
       <c r="C102" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D102" s="14"/>
+        <v>112</v>
+      </c>
+      <c r="D102" s="13"/>
       <c r="E102" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F102" s="14"/>
       <c r="G102" s="5"/>
@@ -3431,13 +3442,15 @@
       <c r="A103" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B103" s="2"/>
+      <c r="B103" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C103" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F103" s="14"/>
       <c r="G103" s="5"/>
@@ -3452,16 +3465,16 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F104" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="F104" s="14"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="I104" s="3"/>
     </row>
@@ -3469,17 +3482,15 @@
       <c r="A105" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B105" s="2"/>
       <c r="C105" s="4" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F105" s="14"/>
+        <v>114</v>
+      </c>
+      <c r="F105" s="2"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5">
         <v>70</v>
@@ -3487,42 +3498,44 @@
       <c r="I105" s="3"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D106" s="14"/>
+      <c r="E106" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F106" s="14"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5">
+        <v>70</v>
+      </c>
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="B107" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C107" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D106" s="14"/>
-      <c r="E106" s="5" t="s">
+      <c r="D107" s="14"/>
+      <c r="E107" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="F106" s="14"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3">
-        <v>150</v>
-      </c>
-      <c r="I106" s="3"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B107" s="17"/>
-      <c r="C107" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D107" s="14"/>
-      <c r="E107" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="F107" s="14"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I107" s="3"/>
     </row>
@@ -3530,18 +3543,18 @@
       <c r="A108" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B108" s="2"/>
+      <c r="B108" s="17"/>
       <c r="C108" s="4" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="F108" s="14"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="I108" s="3"/>
     </row>
@@ -3551,13 +3564,13 @@
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="4" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F109" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="F109" s="2"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3">
         <v>150</v>
@@ -3568,20 +3581,18 @@
       <c r="A110" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B110" s="2"/>
       <c r="C110" s="4" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="4" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="I110" s="3"/>
     </row>
@@ -3589,18 +3600,20 @@
       <c r="A111" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C111" s="4" t="s">
-        <v>247</v>
+        <v>122</v>
       </c>
       <c r="D111" s="14"/>
       <c r="E111" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F111" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F111" s="14"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="I111" s="3"/>
     </row>
@@ -3608,17 +3621,15 @@
       <c r="A112" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B112" s="2"/>
       <c r="C112" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F112" s="14"/>
+        <v>119</v>
+      </c>
+      <c r="F112" s="2"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3">
         <v>150</v>
@@ -3629,13 +3640,15 @@
       <c r="A113" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B113" s="2"/>
+      <c r="B113" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C113" s="4" t="s">
-        <v>105</v>
+        <v>244</v>
       </c>
       <c r="D113" s="14"/>
       <c r="E113" s="4" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="3"/>
@@ -3650,11 +3663,11 @@
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="4" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D114" s="14"/>
       <c r="E114" s="4" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="3"/>
@@ -3669,13 +3682,13 @@
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D115" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="D115" s="14"/>
       <c r="E115" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F115" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="F115" s="14"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3">
         <v>150</v>
@@ -3688,11 +3701,11 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="3"/>
@@ -3707,11 +3720,11 @@
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="3"/>
@@ -3724,20 +3737,18 @@
       <c r="A118" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B118" s="2"/>
       <c r="C118" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="I118" s="3"/>
     </row>
@@ -3745,18 +3756,20 @@
       <c r="A119" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B119" s="2"/>
+      <c r="B119" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C119" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I119" s="3"/>
     </row>
@@ -3764,20 +3777,18 @@
       <c r="A120" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B120" s="2"/>
       <c r="C120" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D120" s="14"/>
+        <v>134</v>
+      </c>
+      <c r="D120" s="2"/>
       <c r="E120" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F120" s="14"/>
+        <v>126</v>
+      </c>
+      <c r="F120" s="2"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="I120" s="3"/>
     </row>
@@ -3785,18 +3796,20 @@
       <c r="A121" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B121" s="2"/>
+      <c r="B121" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C121" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D121" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="D121" s="14"/>
       <c r="E121" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F121" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="F121" s="14"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="I121" s="3"/>
     </row>
@@ -3806,16 +3819,16 @@
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="I122" s="3"/>
     </row>
@@ -3823,20 +3836,18 @@
       <c r="A123" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B123" s="2"/>
       <c r="C123" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D123" s="14"/>
+        <v>165</v>
+      </c>
+      <c r="D123" s="2"/>
       <c r="E123" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F123" s="14"/>
+        <v>162</v>
+      </c>
+      <c r="F123" s="2"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="I123" s="3"/>
     </row>
@@ -3844,13 +3855,15 @@
       <c r="A124" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B124" s="2"/>
+      <c r="B124" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C124" s="4" t="s">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="D124" s="14"/>
       <c r="E124" s="4" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="F124" s="14"/>
       <c r="G124" s="3"/>
@@ -3863,17 +3876,15 @@
       <c r="A125" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B125" s="2"/>
       <c r="C125" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D125" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="D125" s="14"/>
       <c r="E125" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F125" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="F125" s="14"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3">
         <v>150</v>
@@ -3884,18 +3895,20 @@
       <c r="A126" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B126" s="2"/>
+      <c r="B126" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C126" s="4" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="4" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="I126" s="3"/>
     </row>
@@ -3905,13 +3918,13 @@
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D127" s="14"/>
+        <v>140</v>
+      </c>
+      <c r="D127" s="2"/>
       <c r="E127" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F127" s="14"/>
+        <v>140</v>
+      </c>
+      <c r="F127" s="2"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3">
         <v>135</v>
@@ -3922,15 +3935,13 @@
       <c r="A128" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B128" s="2"/>
       <c r="C128" s="4" t="s">
-        <v>206</v>
+        <v>2</v>
       </c>
       <c r="D128" s="14"/>
       <c r="E128" s="4" t="s">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="F128" s="14"/>
       <c r="G128" s="3"/>
@@ -3943,15 +3954,17 @@
       <c r="A129" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B129" s="2"/>
+      <c r="B129" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C129" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D129" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="D129" s="14"/>
       <c r="E129" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F129" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="F129" s="14"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3">
         <v>135</v>
@@ -3959,42 +3972,40 @@
       <c r="I129" s="3"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B130" s="17"/>
-      <c r="C130" s="5" t="s">
-        <v>235</v>
+      <c r="A130" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="D130" s="2"/>
-      <c r="E130" s="5" t="s">
-        <v>217</v>
+      <c r="E130" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="I130" s="3"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D131" s="14"/>
-      <c r="E131" s="4" t="s">
-        <v>218</v>
+      <c r="B131" s="17"/>
+      <c r="C131" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I131" s="3"/>
     </row>
@@ -4002,18 +4013,20 @@
       <c r="A132" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B132" s="2"/>
+      <c r="B132" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C132" s="4" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="D132" s="14"/>
       <c r="E132" s="4" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="I132" s="3"/>
     </row>
@@ -4021,20 +4034,18 @@
       <c r="A133" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B133" s="2"/>
       <c r="C133" s="4" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D133" s="14"/>
       <c r="E133" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F133" s="14"/>
+        <v>249</v>
+      </c>
+      <c r="F133" s="2"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="I133" s="3"/>
     </row>
@@ -4046,51 +4057,53 @@
         <v>246</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D134" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="D134" s="14"/>
       <c r="E134" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F134" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="F134" s="14"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I134" s="3"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="B135" s="17" t="s">
+      <c r="A135" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C135" s="5" t="s">
-        <v>196</v>
+      <c r="C135" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="D135" s="2"/>
-      <c r="E135" s="5" t="s">
-        <v>195</v>
+      <c r="E135" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="I135" s="3"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B136" s="2"/>
-      <c r="C136" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D136" s="14"/>
-      <c r="E136" s="4" t="s">
-        <v>164</v>
+      <c r="B136" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="3"/>
@@ -4100,44 +4113,42 @@
       <c r="I136" s="3"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B137" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>208</v>
+      <c r="A137" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="D137" s="14"/>
-      <c r="E137" s="5" t="s">
-        <v>207</v>
+      <c r="E137" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="I137" s="3"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>239</v>
+      <c r="C138" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="D138" s="14"/>
-      <c r="E138" s="4" t="s">
-        <v>153</v>
+      <c r="E138" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="I138" s="3"/>
     </row>
@@ -4149,16 +4160,16 @@
         <v>246</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D139" s="14"/>
       <c r="E139" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="I139" s="3"/>
     </row>
@@ -4170,16 +4181,16 @@
         <v>246</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D140" s="14"/>
       <c r="E140" s="4" t="s">
-        <v>255</v>
+        <v>152</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I140" s="3"/>
     </row>
@@ -4191,55 +4202,55 @@
         <v>246</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D141" s="14"/>
       <c r="E141" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I141" s="3"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B142" s="5" t="s">
+      <c r="A142" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C142" s="5" t="s">
-        <v>144</v>
+      <c r="C142" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="D142" s="14"/>
-      <c r="E142" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F142" s="14"/>
+      <c r="E142" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F142" s="2"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="I142" s="3"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D143" s="2"/>
-      <c r="E143" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F143" s="2"/>
+      <c r="C143" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D143" s="14"/>
+      <c r="E143" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F143" s="14"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3">
         <v>135</v>
@@ -4247,40 +4258,42 @@
       <c r="I143" s="3"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="B144" s="17"/>
-      <c r="C144" s="5" t="s">
-        <v>170</v>
+      <c r="A144" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="D144" s="2"/>
-      <c r="E144" s="5" t="s">
-        <v>197</v>
+      <c r="E144" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I144" s="3"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="B145" s="2"/>
-      <c r="C145" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D145" s="14"/>
-      <c r="E145" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F145" s="14"/>
+      <c r="B145" s="17"/>
+      <c r="C145" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F145" s="2"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I145" s="3"/>
     </row>
@@ -4290,16 +4303,16 @@
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="4" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="D146" s="14"/>
       <c r="E146" s="4" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="F146" s="14"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I146" s="3"/>
     </row>
@@ -4309,16 +4322,16 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D147" s="14"/>
       <c r="E147" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F147" s="14"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I147" s="3"/>
     </row>
@@ -4328,11 +4341,11 @@
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D148" s="14"/>
       <c r="E148" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F148" s="14"/>
       <c r="G148" s="3"/>
@@ -4347,11 +4360,11 @@
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="4" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="D149" s="14"/>
       <c r="E149" s="4" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="F149" s="14"/>
       <c r="G149" s="3"/>
@@ -4366,11 +4379,11 @@
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D150" s="14"/>
       <c r="E150" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F150" s="14"/>
       <c r="G150" s="3"/>
@@ -4385,16 +4398,16 @@
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D151" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="D151" s="14"/>
       <c r="E151" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F151" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="F151" s="14"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I151" s="3"/>
     </row>
@@ -4404,16 +4417,16 @@
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I152" s="3"/>
     </row>
@@ -4423,16 +4436,16 @@
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="4" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="4" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="I153" s="3"/>
     </row>
@@ -4442,45 +4455,58 @@
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="4" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="4" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3">
-        <v>10</v>
-      </c>
-      <c r="I154" s="3">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I154" s="3"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B155" s="14"/>
-      <c r="C155" s="14" t="s">
+      <c r="B155" s="2"/>
+      <c r="C155" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F155" s="2"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3">
+        <v>10</v>
+      </c>
+      <c r="I155" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B156" s="14"/>
+      <c r="C156" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="D155" s="2"/>
-      <c r="E155" s="14" t="s">
+      <c r="D156" s="2"/>
+      <c r="E156" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="3">
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="3">
         <v>60</v>
       </c>
-      <c r="I155" s="2"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="E156" s="1"/>
+      <c r="I156" s="2"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
@@ -4515,10 +4541,16 @@
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="E162" s="1"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/helper_skripts/menu_converter/menu-2024.08.09.xlsx
+++ b/helper_skripts/menu_converter/menu-2024.08.09.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix/Local/benefi/helper_skripts/menu_converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546331FE-FB5E-0543-98E8-8CC97995A633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2F4FB0-1E32-BB4E-BD7E-17F6DD823B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{66CE5546-DD97-6C42-971C-9AA23625C39F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="261">
   <si>
     <t>Bowl</t>
   </si>
@@ -816,6 +816,12 @@
   </si>
   <si>
     <t>Cold Brew</t>
+  </si>
+  <si>
+    <t>Sıkma Portakal suyu</t>
+  </si>
+  <si>
+    <t>Fresh squeezed orange juice</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1018,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1466,11 +1472,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3148,57 +3154,55 @@
         <v>221</v>
       </c>
       <c r="B88" s="4"/>
-      <c r="C88" s="7" t="s">
-        <v>187</v>
+      <c r="C88" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="4" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="F88" s="14"/>
       <c r="G88" s="6"/>
-      <c r="H88" s="5">
-        <v>75</v>
-      </c>
-      <c r="I88" s="8"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="8">
+        <v>90</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5" t="s">
-        <v>98</v>
+      <c r="A89" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="D89" s="14"/>
-      <c r="E89" s="5" t="s">
-        <v>99</v>
+      <c r="E89" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="F89" s="14"/>
       <c r="G89" s="6"/>
       <c r="H89" s="5">
-        <v>50</v>
-      </c>
-      <c r="I89" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="I89" s="8"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>45</v>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="D90" s="14"/>
-      <c r="E90" s="4" t="s">
-        <v>45</v>
+      <c r="E90" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="F90" s="14"/>
       <c r="G90" s="6"/>
       <c r="H90" s="5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I90" s="3"/>
     </row>
@@ -3210,16 +3214,16 @@
         <v>246</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="4" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F91" s="14"/>
-      <c r="G91" s="11"/>
+      <c r="G91" s="6"/>
       <c r="H91" s="5">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I91" s="3"/>
     </row>
@@ -3231,16 +3235,16 @@
         <v>246</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="4" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F92" s="14"/>
-      <c r="G92" s="6"/>
+      <c r="G92" s="11"/>
       <c r="H92" s="5">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I92" s="3"/>
     </row>
@@ -3248,18 +3252,20 @@
       <c r="A93" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B93" s="4"/>
+      <c r="B93" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="C93" s="4" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="4" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="F93" s="14"/>
       <c r="G93" s="6"/>
       <c r="H93" s="5">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I93" s="3"/>
     </row>
@@ -3269,16 +3275,16 @@
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F94" s="14"/>
-      <c r="G94" s="5"/>
+      <c r="G94" s="6"/>
       <c r="H94" s="5">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I94" s="3"/>
     </row>
@@ -3288,16 +3294,16 @@
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="4" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="F95" s="14"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I95" s="3"/>
     </row>
@@ -3307,51 +3313,51 @@
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F96" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F96" s="14"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>237</v>
+      <c r="A97" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="D97" s="14"/>
-      <c r="E97" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F97" s="14"/>
+      <c r="E97" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F97" s="2"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="I97" s="3"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="4" t="s">
-        <v>108</v>
+      <c r="B98" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="D98" s="14"/>
-      <c r="E98" s="4" t="s">
-        <v>109</v>
+      <c r="E98" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="F98" s="14"/>
       <c r="G98" s="5"/>
@@ -3366,11 +3372,11 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D99" s="13"/>
+        <v>108</v>
+      </c>
+      <c r="D99" s="14"/>
       <c r="E99" s="4" t="s">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="F99" s="14"/>
       <c r="G99" s="5"/>
@@ -3385,11 +3391,11 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D100" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="D100" s="13"/>
       <c r="E100" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F100" s="14"/>
       <c r="G100" s="5"/>
@@ -3402,15 +3408,13 @@
       <c r="A101" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B101" s="2"/>
       <c r="C101" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D101" s="13"/>
+        <v>192</v>
+      </c>
+      <c r="D101" s="14"/>
       <c r="E101" s="4" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="F101" s="14"/>
       <c r="G101" s="5"/>
@@ -3423,13 +3427,15 @@
       <c r="A102" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B102" s="2"/>
+      <c r="B102" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C102" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F102" s="14"/>
       <c r="G102" s="5"/>
@@ -3442,15 +3448,13 @@
       <c r="A103" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B103" s="2"/>
       <c r="C103" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D103" s="14"/>
+        <v>112</v>
+      </c>
+      <c r="D103" s="13"/>
       <c r="E103" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F103" s="14"/>
       <c r="G103" s="5"/>
@@ -3463,13 +3467,15 @@
       <c r="A104" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B104" s="2"/>
+      <c r="B104" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C104" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="5"/>
@@ -3484,16 +3490,16 @@
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F105" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="F105" s="14"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="I105" s="3"/>
     </row>
@@ -3501,17 +3507,15 @@
       <c r="A106" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B106" s="2"/>
       <c r="C106" s="4" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F106" s="14"/>
+        <v>114</v>
+      </c>
+      <c r="F106" s="2"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5">
         <v>70</v>
@@ -3519,42 +3523,44 @@
       <c r="I106" s="3"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D107" s="14"/>
+      <c r="E107" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F107" s="14"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5">
+        <v>70</v>
+      </c>
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B107" s="17" t="s">
+      <c r="B108" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C108" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D107" s="14"/>
-      <c r="E107" s="5" t="s">
+      <c r="D108" s="14"/>
+      <c r="E108" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="F107" s="14"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3">
-        <v>150</v>
-      </c>
-      <c r="I107" s="3"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B108" s="17"/>
-      <c r="C108" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D108" s="14"/>
-      <c r="E108" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="F108" s="14"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I108" s="3"/>
     </row>
@@ -3562,18 +3568,18 @@
       <c r="A109" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B109" s="2"/>
+      <c r="B109" s="17"/>
       <c r="C109" s="4" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F109" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="F109" s="14"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="I109" s="3"/>
     </row>
@@ -3583,13 +3589,13 @@
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="4" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F110" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="F110" s="2"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3">
         <v>150</v>
@@ -3600,20 +3606,18 @@
       <c r="A111" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B111" s="2"/>
       <c r="C111" s="4" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D111" s="14"/>
       <c r="E111" s="4" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="I111" s="3"/>
     </row>
@@ -3621,18 +3625,20 @@
       <c r="A112" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B112" s="2"/>
+      <c r="B112" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C112" s="4" t="s">
-        <v>247</v>
+        <v>122</v>
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F112" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F112" s="14"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="I112" s="3"/>
     </row>
@@ -3640,17 +3646,15 @@
       <c r="A113" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B113" s="2"/>
       <c r="C113" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D113" s="14"/>
       <c r="E113" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F113" s="14"/>
+        <v>119</v>
+      </c>
+      <c r="F113" s="2"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3">
         <v>150</v>
@@ -3661,13 +3665,15 @@
       <c r="A114" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B114" s="2"/>
+      <c r="B114" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C114" s="4" t="s">
-        <v>105</v>
+        <v>244</v>
       </c>
       <c r="D114" s="14"/>
       <c r="E114" s="4" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="3"/>
@@ -3682,11 +3688,11 @@
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="4" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D115" s="14"/>
       <c r="E115" s="4" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="3"/>
@@ -3701,13 +3707,13 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D116" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="D116" s="14"/>
       <c r="E116" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F116" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="F116" s="14"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3">
         <v>150</v>
@@ -3720,11 +3726,11 @@
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F117" s="2"/>
       <c r="G117" s="3"/>
@@ -3739,11 +3745,11 @@
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="3"/>
@@ -3756,20 +3762,18 @@
       <c r="A119" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B119" s="2"/>
       <c r="C119" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="I119" s="3"/>
     </row>
@@ -3777,18 +3781,20 @@
       <c r="A120" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B120" s="2"/>
+      <c r="B120" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C120" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I120" s="3"/>
     </row>
@@ -3796,20 +3802,18 @@
       <c r="A121" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B121" s="2"/>
       <c r="C121" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D121" s="14"/>
+        <v>134</v>
+      </c>
+      <c r="D121" s="2"/>
       <c r="E121" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F121" s="14"/>
+        <v>126</v>
+      </c>
+      <c r="F121" s="2"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="I121" s="3"/>
     </row>
@@ -3817,18 +3821,20 @@
       <c r="A122" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B122" s="2"/>
+      <c r="B122" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C122" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D122" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="D122" s="14"/>
       <c r="E122" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F122" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="F122" s="14"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="I122" s="3"/>
     </row>
@@ -3838,16 +3844,16 @@
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="I123" s="3"/>
     </row>
@@ -3855,20 +3861,18 @@
       <c r="A124" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B124" s="2"/>
       <c r="C124" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D124" s="14"/>
+        <v>165</v>
+      </c>
+      <c r="D124" s="2"/>
       <c r="E124" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F124" s="14"/>
+        <v>162</v>
+      </c>
+      <c r="F124" s="2"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="I124" s="3"/>
     </row>
@@ -3876,13 +3880,15 @@
       <c r="A125" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B125" s="2"/>
+      <c r="B125" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C125" s="4" t="s">
-        <v>202</v>
+        <v>1</v>
       </c>
       <c r="D125" s="14"/>
       <c r="E125" s="4" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="F125" s="14"/>
       <c r="G125" s="3"/>
@@ -3895,17 +3901,15 @@
       <c r="A126" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B126" s="2"/>
       <c r="C126" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D126" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="D126" s="14"/>
       <c r="E126" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F126" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="F126" s="14"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3">
         <v>150</v>
@@ -3916,18 +3920,20 @@
       <c r="A127" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B127" s="2"/>
+      <c r="B127" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C127" s="4" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="4" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="F127" s="2"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="I127" s="3"/>
     </row>
@@ -3937,13 +3943,13 @@
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D128" s="14"/>
+        <v>140</v>
+      </c>
+      <c r="D128" s="2"/>
       <c r="E128" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F128" s="14"/>
+        <v>140</v>
+      </c>
+      <c r="F128" s="2"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3">
         <v>135</v>
@@ -3954,15 +3960,13 @@
       <c r="A129" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B129" s="2"/>
       <c r="C129" s="4" t="s">
-        <v>206</v>
+        <v>2</v>
       </c>
       <c r="D129" s="14"/>
       <c r="E129" s="4" t="s">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="F129" s="14"/>
       <c r="G129" s="3"/>
@@ -3975,15 +3979,17 @@
       <c r="A130" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B130" s="2"/>
+      <c r="B130" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C130" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D130" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="D130" s="14"/>
       <c r="E130" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F130" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="F130" s="14"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3">
         <v>135</v>
@@ -3991,42 +3997,40 @@
       <c r="I130" s="3"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="B131" s="17"/>
-      <c r="C131" s="5" t="s">
-        <v>235</v>
+      <c r="A131" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="D131" s="2"/>
-      <c r="E131" s="5" t="s">
-        <v>217</v>
+      <c r="E131" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="I131" s="3"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D132" s="14"/>
-      <c r="E132" s="4" t="s">
-        <v>218</v>
+      <c r="B132" s="17"/>
+      <c r="C132" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I132" s="3"/>
     </row>
@@ -4034,18 +4038,20 @@
       <c r="A133" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B133" s="2"/>
+      <c r="B133" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="C133" s="4" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="D133" s="14"/>
       <c r="E133" s="4" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="I133" s="3"/>
     </row>
@@ -4053,20 +4059,18 @@
       <c r="A134" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="B134" s="2"/>
       <c r="C134" s="4" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="D134" s="14"/>
       <c r="E134" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F134" s="14"/>
+        <v>249</v>
+      </c>
+      <c r="F134" s="2"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="I134" s="3"/>
     </row>
@@ -4078,51 +4082,53 @@
         <v>246</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D135" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="D135" s="14"/>
       <c r="E135" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F135" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="F135" s="14"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I135" s="3"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="B136" s="17" t="s">
+      <c r="A136" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C136" s="5" t="s">
-        <v>196</v>
+      <c r="C136" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="D136" s="2"/>
-      <c r="E136" s="5" t="s">
-        <v>195</v>
+      <c r="E136" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="I136" s="3"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D137" s="14"/>
-      <c r="E137" s="4" t="s">
-        <v>164</v>
+      <c r="B137" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="3"/>
@@ -4132,44 +4138,42 @@
       <c r="I137" s="3"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="B138" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>208</v>
+      <c r="A138" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="D138" s="14"/>
-      <c r="E138" s="5" t="s">
-        <v>207</v>
+      <c r="E138" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="I138" s="3"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>239</v>
+      <c r="C139" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="D139" s="14"/>
-      <c r="E139" s="4" t="s">
-        <v>153</v>
+      <c r="E139" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="I139" s="3"/>
     </row>
@@ -4181,16 +4185,16 @@
         <v>246</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D140" s="14"/>
       <c r="E140" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="I140" s="3"/>
     </row>
@@ -4202,16 +4206,16 @@
         <v>246</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D141" s="14"/>
       <c r="E141" s="4" t="s">
-        <v>255</v>
+        <v>152</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I141" s="3"/>
     </row>
@@ -4223,55 +4227,55 @@
         <v>246</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D142" s="14"/>
       <c r="E142" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I142" s="3"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B143" s="5" t="s">
+      <c r="A143" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>144</v>
+      <c r="C143" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="D143" s="14"/>
-      <c r="E143" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F143" s="14"/>
+      <c r="E143" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F143" s="2"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="I143" s="3"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="E144" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F144" s="2"/>
+      <c r="C144" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D144" s="14"/>
+      <c r="E144" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F144" s="14"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3">
         <v>135</v>
@@ -4279,40 +4283,42 @@
       <c r="I144" s="3"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="B145" s="17"/>
-      <c r="C145" s="5" t="s">
-        <v>170</v>
+      <c r="A145" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="D145" s="2"/>
-      <c r="E145" s="5" t="s">
-        <v>197</v>
+      <c r="E145" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="I145" s="3"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="B146" s="2"/>
-      <c r="C146" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D146" s="14"/>
-      <c r="E146" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F146" s="14"/>
+      <c r="B146" s="17"/>
+      <c r="C146" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F146" s="2"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I146" s="3"/>
     </row>
@@ -4322,16 +4328,16 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="4" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="D147" s="14"/>
       <c r="E147" s="4" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="F147" s="14"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I147" s="3"/>
     </row>
@@ -4341,16 +4347,16 @@
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D148" s="14"/>
       <c r="E148" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F148" s="14"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I148" s="3"/>
     </row>
@@ -4360,11 +4366,11 @@
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D149" s="14"/>
       <c r="E149" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F149" s="14"/>
       <c r="G149" s="3"/>
@@ -4379,11 +4385,11 @@
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="4" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="D150" s="14"/>
       <c r="E150" s="4" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="F150" s="14"/>
       <c r="G150" s="3"/>
@@ -4398,11 +4404,11 @@
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D151" s="14"/>
       <c r="E151" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F151" s="14"/>
       <c r="G151" s="3"/>
@@ -4417,16 +4423,16 @@
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D152" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="D152" s="14"/>
       <c r="E152" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F152" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="F152" s="14"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I152" s="3"/>
     </row>
@@ -4436,16 +4442,16 @@
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F153" s="2"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I153" s="3"/>
     </row>
@@ -4455,16 +4461,16 @@
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="4" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="4" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="F154" s="2"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="I154" s="3"/>
     </row>
@@ -4474,45 +4480,58 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="4" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="4" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3">
-        <v>10</v>
-      </c>
-      <c r="I155" s="3">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I155" s="3"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B156" s="14"/>
-      <c r="C156" s="14" t="s">
+      <c r="B156" s="2"/>
+      <c r="C156" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D156" s="2"/>
+      <c r="E156" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F156" s="2"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3">
+        <v>10</v>
+      </c>
+      <c r="I156" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B157" s="14"/>
+      <c r="C157" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="D156" s="2"/>
-      <c r="E156" s="14" t="s">
+      <c r="D157" s="2"/>
+      <c r="E157" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="3">
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="3">
         <v>60</v>
       </c>
-      <c r="I156" s="2"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="E157" s="1"/>
+      <c r="I157" s="2"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
@@ -4547,10 +4566,16 @@
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="E163" s="1"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/helper_skripts/menu_converter/menu-2024.08.09.xlsx
+++ b/helper_skripts/menu_converter/menu-2024.08.09.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix/Local/benefi/helper_skripts/menu_converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2F4FB0-1E32-BB4E-BD7E-17F6DD823B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98912E2-DB01-9742-B390-E3775F6ACDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{66CE5546-DD97-6C42-971C-9AA23625C39F}"/>
   </bookViews>
@@ -1474,9 +1474,9 @@
   </sheetPr>
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1912,9 +1912,7 @@
       <c r="C25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="2">
-        <v>9</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="4" t="s">
         <v>9</v>
       </c>
@@ -3579,7 +3577,7 @@
       <c r="F109" s="14"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="I109" s="3"/>
     </row>
@@ -3697,7 +3695,7 @@
       <c r="F115" s="14"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="I115" s="3"/>
     </row>
@@ -4394,7 +4392,7 @@
       <c r="F150" s="14"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I150" s="3"/>
     </row>
@@ -4413,7 +4411,7 @@
       <c r="F151" s="14"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I151" s="3"/>
     </row>
